--- a/imobiliaria_leads.xlsx
+++ b/imobiliaria_leads.xlsx
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Caroline Peres Couto</t>
+          <t>José Pedro de Abulquerque</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21965503562</t>
+          <t>21999457635</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>couto8270@gmail.com</t>
+          <t>jose@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,22 +503,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>casa</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.500.600.00</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
